--- a/FA_Logout_21C.xlsx
+++ b/FA_Logout_21C.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RajDivekar\Documents\Work Folder\Finance_step\Fixed Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB79F6AE-CFFF-4584-8F2C-B0360F5A9D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F779529B-F333-4585-94C8-1CB0A16C563E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
